--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-Teaching\MicroGridsPy-Teaching-multi-year-capacity-expansion-MYCE-\MicroGrids\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949483D9-5FEA-48CA-A3CE-7C3D579BCA14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28751CF-36C8-42F0-9DAF-07FAD7C7AAE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generator Data" sheetId="1" r:id="rId1"/>
@@ -453,13 +453,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,48 +467,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>70395.752763482626</v>
+        <v>49923.038631000003</v>
       </c>
       <c r="C2">
-        <v>43644.777371722477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9212.0272238599991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>29573.255735939048</v>
+        <v>20972.668528883099</v>
       </c>
       <c r="C3">
-        <v>13093.43321151674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2763.608167158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2957.3255735939051</v>
+        <v>2097.26685288831</v>
       </c>
       <c r="C4">
-        <v>1178.4089890365069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248.72473504422001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>276787.39954040822</v>
+        <v>163798.78153099999</v>
       </c>
       <c r="C5">
-        <v>23810.787786547909</v>
+        <v>2902.8748945900002</v>
       </c>
     </row>
   </sheetData>
@@ -522,31 +522,31 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>150299.09366347821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83354.749826347543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>150299.09366347821</v>
+        <v>83346.906599647409</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-Teaching\MicroGridsPy-Teaching-multi-year-capacity-expansion-MYCE-\MicroGrids\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28751CF-36C8-42F0-9DAF-07FAD7C7AAE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D39FDAF-7D47-4C35-B7C3-11A857AFC411}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generator Data" sheetId="1" r:id="rId1"/>
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>49923.038631000003</v>
+        <v>32708.748857899998</v>
       </c>
       <c r="C2">
-        <v>9212.0272238599991</v>
+        <v>27546.739683299998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20972.668528883099</v>
+        <v>13740.945395203789</v>
       </c>
       <c r="C3">
-        <v>2763.608167158</v>
+        <v>8264.0219049899988</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2097.26685288831</v>
+        <v>1374.0945395203789</v>
       </c>
       <c r="C4">
-        <v>248.72473504422001</v>
+        <v>743.76197144909986</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>163798.78153099999</v>
+        <v>122896.074876</v>
       </c>
       <c r="C5">
-        <v>2902.8748945900002</v>
+        <v>45825.056022199999</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>83354.749826347543</v>
+        <v>84311.981381491467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>83346.906599647409</v>
+        <v>84409.149516779638</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-Teaching\MicroGridsPy-Teaching-multi-year-capacity-expansion-MYCE-\MicroGrids\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D39FDAF-7D47-4C35-B7C3-11A857AFC411}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B06F3EC-504C-4498-A4D4-9097708B36E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generator Data" sheetId="1" r:id="rId1"/>
@@ -453,13 +453,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,48 +467,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>32708.748857899998</v>
+        <v>70604.9265075</v>
       </c>
       <c r="C2">
-        <v>27546.739683299998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43435.2000634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13740.945395203789</v>
+        <v>29661.12962580075</v>
       </c>
       <c r="C3">
-        <v>8264.0219049899988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13030.56001902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1374.0945395203789</v>
+        <v>2966.112962580075</v>
       </c>
       <c r="C4">
-        <v>743.76197144909986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1172.7504017117999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>122896.074876</v>
+        <v>277065.54236800002</v>
       </c>
       <c r="C5">
-        <v>45825.056022199999</v>
+        <v>23516.467432900001</v>
       </c>
     </row>
   </sheetData>
@@ -522,31 +522,31 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>84311.981381491467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>150291.0087386785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>84409.149516779638</v>
+        <v>150291.0010620206</v>
       </c>
     </row>
   </sheetData>
